--- a/SHAP/keep_ozone_MB_shap.xlsx
+++ b/SHAP/keep_ozone_MB_shap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,161 +444,226 @@
           <t>shap</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rename</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pair_energy</t>
+          <t>coulomb</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0001467576739154254</v>
+        <v>0.0003168259644355218</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$\langle pp \vert \vert qq \rangle$</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>coulomb</t>
+          <t>screen1_1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.655211859962944e-05</v>
+        <v>5.940879602786336e-05</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>screen1_1</t>
+          <t>screen1_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0001875505370739348</v>
+        <v>7.824272819801549e-05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>screen1_2</t>
+          <t>screen1_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.548881534674982e-05</v>
+        <v>6.253773474039816e-05</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>screen1_3</t>
+          <t>screen1_4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.845068303571862e-05</v>
+        <v>0.0001148897168160615</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>screen1_4</t>
+          <t>screen2_1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.571066903451575e-05</v>
+        <v>0.0001258499164456318</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>screen2_1</t>
+          <t>screen2_2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7.537475996174948e-05</v>
+        <v>7.35040271998253e-05</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>screen2_2</t>
+          <t>screen2_3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.3406259596269e-05</v>
+        <v>4.517908053822079e-05</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>screen2_3</t>
+          <t>screen2_4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0001259509578279438</v>
+        <v>3.661295765833431e-05</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>screen2_4</t>
+          <t>eijab_1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001337095060248998</v>
+        <v>3.889256167491719e-05</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>eijab_1</t>
+          <t>eijab_2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.851115719717422e-05</v>
+        <v>3.276834448683038e-05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>eijab_2</t>
+          <t>eijab_3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.276200713748728e-05</v>
+        <v>1.989628732556284e-05</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -611,7 +676,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.618027857216101e-05</v>
+        <v>2.793296040015019e-05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -624,7 +694,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.442896079235047e-05</v>
+        <v>3.905361518297251e-05</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -637,7 +712,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002224156382649557</v>
+        <v>3.78460080171781e-05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -650,7 +730,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.331704214826704e-05</v>
+        <v>7.208968252806431e-05</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -663,7 +748,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.257160843500116e-05</v>
+        <v>6.732142213003006e-05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -676,7 +766,12 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.931327460063032e-05</v>
+        <v>3.859239089305153e-05</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -689,280 +784,498 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001234222732746901</v>
+        <v>2.27742806884989e-05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fr3</t>
+          <t>Fr4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.91854634381263e-05</v>
+        <v>1.634412636579059e-05</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fr4</t>
+          <t>Fs1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.030280534246464e-05</v>
+        <v>0.0001776322197255775</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fs2</t>
+          <t>Fs3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.43457098344579e-05</v>
+        <v>2.693023691802636e-05</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>occr1</t>
+          <t>Fs4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.714454028112203e-05</v>
+        <v>5.324781947464344e-05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>occr2</t>
+          <t>occr1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.979432040070973e-05</v>
+        <v>4.265310876794375e-05</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>occs2</t>
+          <t>occr2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.959725207211664e-05</v>
+        <v>4.020503578892763e-05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>occs4</t>
+          <t>occr3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.410845670911772e-05</v>
+        <v>2.287255070539599e-05</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SCFFr1</t>
+          <t>occr4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.225415246436914e-05</v>
+        <v>2.912423636206734e-05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$(\eta_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SCFFr3</t>
+          <t>occs3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.633993775406982e-05</v>
+        <v>1.656437647339937e-05</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SCFFs2</t>
+          <t>occs4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.475344008038753e-05</v>
+        <v>1.621568835734885e-05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SCFFs4</t>
+          <t>SCFFr1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.438530236877726e-05</v>
+        <v>1.633159600448834e-05</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>hrr1</t>
+          <t>SCFFr3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.649385930228414e-05</v>
+        <v>1.133333531881307e-05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>hrr2</t>
+          <t>SCFFs1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.819208892460272e-05</v>
+        <v>0.0002830631350236944</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>hrr3</t>
+          <t>SCFFs2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.24171677902743e-05</v>
+        <v>0.0001792907481552214</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>hrr4</t>
+          <t>SCFFs3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.861728169867345e-05</v>
+        <v>1.446614255483271e-05</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>hss2</t>
+          <t>SCFFs4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.495222436128716e-05</v>
+        <v>2.98289304025045e-05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>hpp</t>
+          <t>hrr1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.527628759744439e-05</v>
+        <v>1.896106418495491e-05</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fp</t>
+          <t>hrr2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0001006899246613552</v>
+        <v>1.151941430186525e-05</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fq</t>
+          <t>hrr3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0001232189875433687</v>
+        <v>1.809523655504705e-05</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SCFFp</t>
+          <t>hss1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.395885346038223e-05</v>
+        <v>3.099170070176877e-05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>hss2</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0001180824240041617</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{2}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>hpp</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0001177320874143567</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$h_{pp}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fp</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4.691652598230687e-05</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$F_{p}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fq</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5.396310224662725e-05</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$F_{q}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>occq</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>9.934645994097476e-05</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$\eta_{q}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SCFFp</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0001755466996723631</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$F_{p}^{\text{SCF}}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>SCFFq</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>3.672106481604187e-05</v>
+      <c r="C47" t="n">
+        <v>4.472042494480772e-05</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$F_{q}^{\text{SCF}}$</t>
+        </is>
       </c>
     </row>
   </sheetData>
